--- a/medicine/Enfance/Andrée_Prigent/Andrée_Prigent.xlsx
+++ b/medicine/Enfance/Andrée_Prigent/Andrée_Prigent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Prigent</t>
+          <t>Andrée_Prigent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrée Prigent (née le 14 juin 1963 à Brest) est une illustratrice et auteure de livres pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Prigent</t>
+          <t>Andrée_Prigent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est diplômée des Beaux-Arts de Rennes[1],[2], puis elle travaille comme autrice et illustratrice pour l'édition jeunesse.
-« Papier découpé, linogravure, pochoir, peinture... elle aime expérimenter différentes techniques. Son univers est peuplé d’animaux[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diplômée des Beaux-Arts de Rennes puis elle travaille comme autrice et illustratrice pour l'édition jeunesse.
+« Papier découpé, linogravure, pochoir, peinture... elle aime expérimenter différentes techniques. Son univers est peuplé d’animaux ».
 Elle est publiée par différents éditeurs jeunesse, dont Didier Jeunesse, Nathan, Rue du monde ou Kaléidoscope.
-Elle travaille également pour « la presse, la papeterie, le dessin publicitaire, la création textile[3] ».
-Elle est membre de la Charte des auteurs et illustrateurs jeunesse[1].
+Elle travaille également pour « la presse, la papeterie, le dessin publicitaire, la création textile ».
+Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Prigent</t>
+          <t>Andrée_Prigent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Autrice et illustratrice
-Pouloute, l'hippopotame, Nathan, 1996.
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pouloute, l'hippopotame, Nathan, 1996.
 L'Aviateur, écrit avec Amélie Cantin et Marc Cantin, Didier jeunesse, 1999.
 Colografouillage, album à colorier, La maison est en carton, 2014.
 Didoune, Didier jeunesse, 2016.
@@ -558,9 +577,43 @@
 Le grand mouton, Kaleidoscope, 2020.
 Ours et les choses, Didier jeunesse, 2020.
 Depêchez-vous, Didier Jeunesse, 2021.
-Et si on passait l'hiver ensemble ?, Didier Jeunesse, 2023
-Illustratrice
-Tibili , texte de Marie Léonard, éditions Magnard :
+Et si on passait l'hiver ensemble ?, Didier Jeunesse, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andrée_Prigent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9e_Prigent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tibili , texte de Marie Léonard, éditions Magnard :
 Tibili et Koumi, la chauve-souris, 1990.
 Tibili ou Le Petit garçon qui ne voulait pas aller à l'école, 1990.
 Du ski pour Tibili, 1992.
@@ -597,36 +650,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9e_Prigent</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andrée_Prigent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Andr%C3%A9e_Prigent</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sélection Prix des Incorruptibles 1994[3] pour Tibili ou le petit garçon qui ne voulait pas aller à l'école, texte de Marie Léonard
-Sélection Prix des Incorruptibles 2013[3] pour Le bébé tombé du train, texte de Jo Hoestlandt
-Prix Ficelle[4] 2018 pour Poto le chien
- Prix Bernard Versele 2019[5],[6] pour Poto le chien</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sélection Prix des Incorruptibles 1994 pour Tibili ou le petit garçon qui ne voulait pas aller à l'école, texte de Marie Léonard
+Sélection Prix des Incorruptibles 2013 pour Le bébé tombé du train, texte de Jo Hoestlandt
+Prix Ficelle 2018 pour Poto le chien
+ Prix Bernard Versele 2019, pour Poto le chien</t>
         </is>
       </c>
     </row>
